--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.454688477258965</v>
+        <v>-1.534164946773998</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.256887149897067</v>
+        <v>-2.387260685098946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.568974856696117</v>
+        <v>-3.569631539973011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.172612548151116</v>
+        <v>-5.86958778207888</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.451098409228368</v>
+        <v>-4.468691626646388</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.994279687222236</v>
+        <v>-7.699858940699539</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.720070493129227</v>
+        <v>-2.375126334219102</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.316865236770807</v>
+        <v>-2.434587289809021</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.919777928424891</v>
+        <v>-4.710716125312768</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.323300783097583</v>
+        <v>4.276159561775439</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.865716168401829</v>
+        <v>2.882020612957453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7665895744028648</v>
+        <v>0.6940981282030674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.869180037203357</v>
+        <v>3.870867876019783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.941393820996439</v>
+        <v>5.462386557859344</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01510660092362933</v>
+        <v>-0.09887592030536259</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.971995456921499</v>
+        <v>3.203500848237057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.98004646072022</v>
+        <v>2.978730066406649</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.2825419566894606</v>
+        <v>-0.2126554517907641</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1609718540706427</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4351807346185035</v>
+        <v>-0.4351807346185034</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.08725916026312384</v>
@@ -760,7 +760,7 @@
         <v>0.04249405333333529</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.444155987683466</v>
+        <v>-0.4441559876834661</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.06789812264922719</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4689958708545998</v>
+        <v>-0.4970383820561055</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7189276700993484</v>
+        <v>-0.6613491118770721</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8821948853493711</v>
+        <v>-0.8659392077004552</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4887280422837958</v>
+        <v>-0.5186114100078109</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.422204458433015</v>
+        <v>-0.4290810673272797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6894518012992827</v>
+        <v>-0.6774417876293602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3775157234265206</v>
+        <v>-0.3581325973590264</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3657303751434277</v>
+        <v>-0.3671195103651591</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6898563755860319</v>
+        <v>-0.6625523921498742</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.380861465877537</v>
+        <v>3.250266297624964</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.175018100616945</v>
+        <v>2.497432497607766</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9170614246465975</v>
+        <v>1.019908161497554</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7280488825592751</v>
+        <v>0.7012887948805713</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8488067670928544</v>
+        <v>0.9384657316675626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01449197528120617</v>
+        <v>0.01412870645600218</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7604093672399016</v>
+        <v>0.8196174044129488</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7263235882092357</v>
+        <v>0.8129859092996131</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.06719751916590973</v>
+        <v>-0.03362120622561021</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04733085316204388</v>
+        <v>0.0412030795152479</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5084733166781985</v>
+        <v>-0.5834559775969879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.094594817649037</v>
+        <v>1.21378285865569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.044677933579105</v>
+        <v>-1.081439605968233</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.535722735604607</v>
+        <v>-2.653144447049653</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.653667803816665</v>
+        <v>0.322005363811219</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04873234720323272</v>
+        <v>0.3274124211306805</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.086829250691911</v>
+        <v>-1.249798043895119</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.424214735667504</v>
+        <v>1.490874207669532</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.004677942773436</v>
+        <v>4.12419507624228</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.184711087863655</v>
+        <v>2.100668633719469</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.188346718506646</v>
+        <v>5.276404961849283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.4649091353474</v>
+        <v>5.635999094490419</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.380906807605736</v>
+        <v>3.672100545731111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.453341830346042</v>
+        <v>6.473831811013099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.975791650959871</v>
+        <v>4.085075790679257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.229605403035688</v>
+        <v>2.278939054566382</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.127429380772297</v>
+        <v>5.054921843338905</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2440448230120518</v>
+        <v>-0.1842381798066237</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5881143239854785</v>
+        <v>-0.5428388613952498</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6552430499570192</v>
+        <v>0.5503000886149263</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1614809577498429</v>
+        <v>-0.1618254322650421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.355095811402809</v>
+        <v>-0.3756381100378623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06175138324225427</v>
+        <v>0.05045664868345693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0009658893526033541</v>
+        <v>0.09476464494152224</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2777669168846537</v>
+        <v>-0.2884002998781723</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3151857476383441</v>
+        <v>0.3152729799192347</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14.46458080125965</v>
+        <v>15.3936862891988</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.240483717712488</v>
+        <v>8.609456037522703</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20.48232879568032</v>
+        <v>19.21896727464726</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.145102507385412</v>
+        <v>1.191424843552104</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7803986594922108</v>
+        <v>0.8642750179895443</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.522673216959939</v>
+        <v>1.484597513078072</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.527718002320397</v>
+        <v>1.694394619340986</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.911061830395498</v>
+        <v>0.8400482244940682</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.068652902297548</v>
+        <v>1.909521823233529</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.4763758727278488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.506706394696233</v>
+        <v>4.506706394696232</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.478710374227738</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3344660691613828</v>
+        <v>0.3004768509562007</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.558016762000739</v>
+        <v>-2.290175570280054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.061930029363706</v>
+        <v>1.877157715919096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4625436621293488</v>
+        <v>0.8135773257668948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.389810559227545</v>
+        <v>-3.491761704059118</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.646321318807652</v>
+        <v>2.014009981999212</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.39004711189631</v>
+        <v>1.292807416400832</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.293320503610004</v>
+        <v>-2.080541167287263</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.604911624831584</v>
+        <v>2.91318824578699</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.906981191308068</v>
+        <v>5.629428789776286</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9963697332765848</v>
+        <v>0.8596083667089848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.339317952717988</v>
+        <v>7.317282484417022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.586546593182703</v>
+        <v>8.669406207571766</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.707717576996352</v>
+        <v>3.179409775260669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.312681491527405</v>
+        <v>8.430921195403176</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.004687671499963</v>
+        <v>6.132426802926258</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.41201080149942</v>
+        <v>1.519843722792292</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.988223915781126</v>
+        <v>7.395559511857054</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4029996810703669</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3.812538257532518</v>
+        <v>3.812538257532516</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.9876961072091737</v>
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.31043214392499</v>
+        <v>-0.2165388060445465</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>0.3812060840887543</v>
+        <v>0.3849865969760655</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02703572188215069</v>
+        <v>0.05338263842959316</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6021825331996101</v>
+        <v>-0.5739584474684701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2050854768653596</v>
+        <v>0.2535798637703569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3282463396086737</v>
+        <v>0.3021784680235836</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5915019021383455</v>
+        <v>-0.5709325438028092</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6012406254614745</v>
+        <v>0.653214642429117</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>15.06364055152423</v>
+        <v>13.34212796126054</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>17.66620863258504</v>
+        <v>18.53287884981522</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.771396555282498</v>
+        <v>2.924395662887897</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.86119773451482</v>
+        <v>1.06549072798627</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.002328992987821</v>
+        <v>3.085616210646451</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.014984695656278</v>
+        <v>3.338047763762929</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8284780121850565</v>
+        <v>0.9182189529327743</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.800264176091088</v>
+        <v>3.963492414609588</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1293,7 @@
         <v>2.576069002055856</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8797285221959349</v>
+        <v>0.8797285221959341</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.188923719399948</v>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7381196366656737</v>
+        <v>-0.7888633856260094</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.548522533793844</v>
+        <v>-0.4959059102835006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.25169744822571</v>
+        <v>1.19036026802686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.1128168616221</v>
+        <v>2.013576795025409</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8333604742284145</v>
+        <v>-0.6068141754073487</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.061999700066264</v>
+        <v>-1.911284801574777</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.149335929792365</v>
+        <v>1.324930244163952</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.008369352939386347</v>
+        <v>0.1034334050578148</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5151024305098931</v>
+        <v>0.4342657934898418</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.24574557319588</v>
+        <v>2.083915801575668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.691965917914489</v>
+        <v>2.819508345484241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.565658165532784</v>
+        <v>6.935002453515217</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.663012346890529</v>
+        <v>9.272515536283381</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.711655593683846</v>
+        <v>6.088114542810988</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.644865911529579</v>
+        <v>3.621869841052744</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.27877449797847</v>
+        <v>5.142414585938777</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.71107988657414</v>
+        <v>3.858366093960076</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.35752725613674</v>
+        <v>4.075431169320607</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1398,7 @@
         <v>0.5736021177289804</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1958853365167868</v>
+        <v>0.1958853365167867</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.191295032943006</v>
@@ -1407,7 +1407,7 @@
         <v>0.6886007884231479</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8129869131783425</v>
+        <v>0.8129869131783423</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7431508764373193</v>
+        <v>-0.8367372654775407</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6684297470596896</v>
+        <v>-0.6394951199504587</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4378804490595963</v>
+        <v>0.2231505429246903</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2781179773144356</v>
+        <v>0.2726526286741617</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1689553499353937</v>
+        <v>-0.138220833891278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3333387597652571</v>
+        <v>-0.3149307570279397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2738846941161695</v>
+        <v>0.3609467913971099</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0216656236173254</v>
+        <v>-0.007459630515165919</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.09868808661174802</v>
+        <v>0.05645142139500726</v>
       </c>
     </row>
     <row r="27">
@@ -1452,30 +1452,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>8.587388464555994</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>21.81667666028364</v>
+        <v>23.17877511260015</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.022334442515229</v>
+        <v>2.832274440608745</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.774472758392572</v>
+        <v>1.990283529398525</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.164976007427365</v>
+        <v>1.269606490155925</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.674924122213588</v>
+        <v>2.658598457821128</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.861183753118548</v>
+        <v>1.976859134172386</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.266041299572833</v>
+        <v>1.999085054083096</v>
       </c>
     </row>
     <row r="28">
@@ -1505,7 +1503,7 @@
         <v>-2.277749826817037</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.444148696820812</v>
+        <v>-6.444148696820815</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.256789184168462</v>
@@ -1525,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.657814784936053</v>
+        <v>-4.867492354749998</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.980019209598777</v>
+        <v>-3.037128057059723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.235452827563619</v>
+        <v>-6.975424010121175</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.170521732639878</v>
+        <v>-3.40252217538621</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.222321381948005</v>
+        <v>-8.506563963582556</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.86473851286187</v>
+        <v>-12.14029198409397</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.170772236546637</v>
+        <v>-2.555558192219468</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.260875357212472</v>
+        <v>-4.444346926073943</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.781079405799581</v>
+        <v>-7.809373125621717</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.200350857792426</v>
+        <v>1.992567349293815</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.208490280420471</v>
+        <v>5.328724968911422</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.6738385974679224</v>
+        <v>-0.7623744693776708</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.06252138044335</v>
+        <v>10.35931062359535</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.363354205618938</v>
+        <v>3.289630081452187</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.621545708451331</v>
+        <v>-2.566850859682078</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.891346535962811</v>
+        <v>5.049708414620267</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.751186029650349</v>
+        <v>3.227298238720292</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.196574213764381</v>
+        <v>-2.272060928935995</v>
       </c>
     </row>
     <row r="31">
@@ -1610,7 +1608,7 @@
         <v>-0.1996409680139871</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.5648188702343918</v>
+        <v>-0.564818870234392</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1579795622708238</v>
@@ -1630,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7967666923520544</v>
+        <v>-0.8338122408957123</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5113103962273585</v>
+        <v>-0.5381550112717924</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9396802417275311</v>
+        <v>-0.9354089796133546</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2247600720707492</v>
+        <v>-0.2490574891951728</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5640061986844715</v>
+        <v>-0.5918301389582015</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7476032836574671</v>
+        <v>-0.7585121240530611</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2451758319411331</v>
+        <v>-0.2592763519311748</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4402020483092193</v>
+        <v>-0.4554809530763798</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7648204912325982</v>
+        <v>-0.7621266654583571</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.211183663363232</v>
+        <v>0.8609941278802142</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.935521003656819</v>
+        <v>2.152192612063495</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0604947097315507</v>
+        <v>-0.001780945604298987</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.190103409838188</v>
+        <v>1.17920597743015</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4299457439662742</v>
+        <v>0.4038430440938106</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1897516067620065</v>
+        <v>-0.2684947032054604</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7835121431824434</v>
+        <v>0.8531681478507851</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4413454602037187</v>
+        <v>0.5169596026807468</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3789319319681849</v>
+        <v>-0.3736860673684925</v>
       </c>
     </row>
     <row r="34">
@@ -1719,7 +1717,7 @@
         <v>5.256482198078436</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.939362103736038</v>
+        <v>2.939362103736034</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.235196484547552</v>
@@ -1728,7 +1726,7 @@
         <v>2.826246231124256</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.483586876047616</v>
+        <v>3.483586876047617</v>
       </c>
     </row>
     <row r="35">
@@ -1739,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6705728465021649</v>
+        <v>0.7410205380261241</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.205414786474248</v>
+        <v>-1.192632628064087</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.79374972822987</v>
+        <v>2.097068933982279</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.824371703866936</v>
+        <v>1.353830838191799</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.201915117599888</v>
+        <v>1.325081889091078</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2995207599266579</v>
+        <v>0.1457309009929197</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.927389371062501</v>
+        <v>1.879612638613896</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.7902083376046393</v>
+        <v>0.8476067358803199</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.729501559523808</v>
+        <v>1.616573591965633</v>
       </c>
     </row>
     <row r="36">
@@ -1774,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.608914422740703</v>
+        <v>5.744969706257435</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.972098977628454</v>
+        <v>1.91739108199644</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.44039883769972</v>
+        <v>6.873538697026503</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.428153848229528</v>
+        <v>9.489872323270703</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.002769756085943</v>
+        <v>9.187509434631032</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.657137254941367</v>
+        <v>5.76014183712092</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.599165115933389</v>
+        <v>6.561778239432423</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.042936250806811</v>
+        <v>5.329020874711874</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.646341811408678</v>
+        <v>5.435435917490205</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1822,7 @@
         <v>1.623534843687892</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9078613060604899</v>
+        <v>0.9078613060604888</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>2.100780130265531</v>
@@ -1833,7 +1831,7 @@
         <v>1.401899993836524</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.72795999381748</v>
+        <v>1.727959993817481</v>
       </c>
     </row>
     <row r="38">
@@ -1844,29 +1842,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1658891854009716</v>
+        <v>-0.07180045889510238</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>0.5590383418249184</v>
+        <v>0.5251739456914681</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2635194715014158</v>
+        <v>0.2246161553243419</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2006378109973809</v>
+        <v>0.2136508129551698</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1017163418700273</v>
+        <v>-0.02843307863645712</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5512498786967275</v>
+        <v>0.5627053047046413</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1928371183741719</v>
+        <v>0.2122331285507397</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4937845675044356</v>
+        <v>0.514111102546474</v>
       </c>
     </row>
     <row r="39">
@@ -1880,22 +1878,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>4.921781650273137</v>
+        <v>4.999668030351612</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5.397512547301898</v>
+        <v>5.311665361774379</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.066517348175304</v>
+        <v>3.321916860444307</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5.273612581149883</v>
+        <v>5.701057815644211</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>4.294358995148059</v>
+        <v>4.87647666634162</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.9261705369043</v>
+        <v>4.538710727148596</v>
       </c>
     </row>
     <row r="40">
@@ -1916,7 +1914,7 @@
         <v>-0.497765818390229</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.628402087387344</v>
+        <v>2.628402087387343</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.2139261260195077</v>
@@ -1934,7 +1932,7 @@
         <v>-1.311737674103972</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.184544502408645</v>
+        <v>2.184544502408646</v>
       </c>
     </row>
     <row r="41">
@@ -1945,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.5609191802650635</v>
+        <v>0.615496242259759</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.930729672359332</v>
+        <v>-1.95967495890449</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.700239165994283</v>
+        <v>0.7786380537833655</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.277401664860613</v>
+        <v>-3.092348595055782</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.097266732152668</v>
+        <v>-4.946501720168318</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.264400491516621</v>
+        <v>-0.8740400982750448</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6835287746906634</v>
+        <v>-0.6630792345359285</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.802973566130736</v>
+        <v>-2.912630440458909</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.3176483127565165</v>
+        <v>0.5217896440603603</v>
       </c>
     </row>
     <row r="42">
@@ -1980,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.406677454780946</v>
+        <v>4.663786783766204</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.081040845880811</v>
+        <v>0.9892100538852487</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.610298232370964</v>
+        <v>4.728079593162645</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.533056981877522</v>
+        <v>2.738250524997449</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.4274689247856411</v>
+        <v>0.4815565190972065</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.264634704148143</v>
+        <v>4.49044618359832</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.682356986107506</v>
+        <v>2.83119393200377</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.3792464269131817</v>
+        <v>0.280950600269515</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.902394293874056</v>
+        <v>3.79383774479904</v>
       </c>
     </row>
     <row r="43">
@@ -2039,7 +2037,7 @@
         <v>-0.2759065484835955</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4594898397502369</v>
+        <v>0.4594898397502372</v>
       </c>
     </row>
     <row r="44">
@@ -2050,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1718093492591091</v>
+        <v>0.1603768963387314</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7447503264551658</v>
+        <v>-0.7282239544992775</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2156937952087264</v>
+        <v>0.2319210083743072</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3598207174014753</v>
+        <v>-0.3514627050456736</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5713952527026545</v>
+        <v>-0.5512704124169243</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1313764985803724</v>
+        <v>-0.1121858377676641</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1247316499720121</v>
+        <v>-0.1265797681852541</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5024858544921663</v>
+        <v>-0.5107504598087449</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.04863155272559851</v>
+        <v>0.08873892195883812</v>
       </c>
     </row>
     <row r="45">
@@ -2085,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.488935838916848</v>
+        <v>3.556017519592212</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9787711828316085</v>
+        <v>0.9835489118863709</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.866280875491403</v>
+        <v>3.817512735849326</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4267289062118544</v>
+        <v>0.4571500573746598</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08186922336328918</v>
+        <v>0.1041642104041822</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7252702663247854</v>
+        <v>0.7528804036287958</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6783340292385366</v>
+        <v>0.7309800370980359</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1088005876175956</v>
+        <v>0.07872505294851025</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9756281316457899</v>
+        <v>0.957204154206039</v>
       </c>
     </row>
     <row r="46">
@@ -2159,31 +2157,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.252724903004894</v>
+        <v>-3.543244680482519</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.705510536137039</v>
+        <v>-2.782109977703158</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.954473919083063</v>
+        <v>-4.026883002613738</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.972631295886726</v>
+        <v>-2.907975170411698</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.19943501812548</v>
+        <v>-0.9901522986763253</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.959911132712557</v>
+        <v>-1.667928156067543</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.472751717526431</v>
+        <v>-2.42720754532934</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.263187849729273</v>
+        <v>-1.316371018642935</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.171566379440427</v>
+        <v>-2.239890291458284</v>
       </c>
     </row>
     <row r="48">
@@ -2194,31 +2192,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5396164461959697</v>
+        <v>0.5173631098579715</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.207546282813784</v>
+        <v>1.048747938075912</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.4319808738483293</v>
+        <v>-0.6293265996895303</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.233949205468598</v>
+        <v>2.295965074269736</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.527220989438723</v>
+        <v>4.687779105815392</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.037363225206352</v>
+        <v>3.17879045959209</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.7547373358698503</v>
+        <v>0.8840814914440838</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.102269467839441</v>
+        <v>2.269184290813363</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.8902543343481691</v>
+        <v>0.892444719183987</v>
       </c>
     </row>
     <row r="49">
@@ -2235,7 +2233,7 @@
         <v>-0.1886013239211172</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.5183642791533075</v>
+        <v>-0.5183642791533074</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.05899261850522683</v>
@@ -2264,31 +2262,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6406335148998397</v>
+        <v>-0.6784742819823929</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5263667390847514</v>
+        <v>-0.5381047238883139</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7475580660666095</v>
+        <v>-0.7493849705738592</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3571221915015521</v>
+        <v>-0.3465272399860319</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1381359125324882</v>
+        <v>-0.131712510731546</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2177425332439197</v>
+        <v>-0.2061345410762294</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3805118206614626</v>
+        <v>-0.3794703064948708</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1996532451252821</v>
+        <v>-0.2077768452787527</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3348945764389996</v>
+        <v>-0.3340934638375883</v>
       </c>
     </row>
     <row r="51">
@@ -2299,31 +2297,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1711407265997625</v>
+        <v>0.1889674637521415</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4132979120200113</v>
+        <v>0.3737994772136038</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1029411410814886</v>
+        <v>-0.1423040393968377</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3932259022644805</v>
+        <v>0.4250547703915281</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7779008087599028</v>
+        <v>0.8622902557665572</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.530776202095278</v>
+        <v>0.5780901916844055</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1705229729197722</v>
+        <v>0.200896607834241</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4462561263714794</v>
+        <v>0.4856968960280313</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1949813286216971</v>
+        <v>0.1823165885382075</v>
       </c>
     </row>
     <row r="52">
@@ -2344,7 +2342,7 @@
         <v>0.04607801068359958</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.307767661080836</v>
+        <v>1.307767661080835</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.905993916795759</v>
@@ -2353,7 +2351,7 @@
         <v>0.6442290255734076</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.213107890151241</v>
+        <v>1.21310789015124</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.474773402380305</v>
@@ -2373,31 +2371,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.2035602575299755</v>
+        <v>0.1383274779827539</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.7056354531444659</v>
+        <v>-0.6174259500508142</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.5987799025783548</v>
+        <v>0.4507910437160753</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.6161404649119254</v>
+        <v>0.5609345438606185</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.6426367742251001</v>
+        <v>-0.7475619127923337</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.1857013520832006</v>
+        <v>0.08171642003130522</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.6937247832707653</v>
+        <v>0.7515541040298318</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.3796860820636585</v>
+        <v>-0.3965799108116955</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.6136379346864564</v>
+        <v>0.6030843184663788</v>
       </c>
     </row>
     <row r="54">
@@ -2408,31 +2406,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.930716816794202</v>
+        <v>1.770299648268197</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.7571642858477347</v>
+        <v>0.79815836291743</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.062686412941174</v>
+        <v>2.091569980983122</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.200062908630345</v>
+        <v>3.12868928035567</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.824474891429386</v>
+        <v>1.897254537953679</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.475972252599218</v>
+        <v>2.311335982670977</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.260778638646427</v>
+        <v>2.222333827997308</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.075449437203954</v>
+        <v>1.00457153558608</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.044412329002517</v>
+        <v>2.042182330334971</v>
       </c>
     </row>
     <row r="55">
@@ -2449,7 +2447,7 @@
         <v>0.0215306755560667</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.6110750181207271</v>
+        <v>0.6110750181207267</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2952015017666275</v>
@@ -2458,7 +2456,7 @@
         <v>0.09977858489214679</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1878868908352164</v>
+        <v>0.1878868908352162</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3404393841468972</v>
@@ -2478,31 +2476,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.05014743108598542</v>
+        <v>0.04846716210384223</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2799537957745142</v>
+        <v>-0.2512135127072032</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2265715955059281</v>
+        <v>0.1760163942673928</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.08502420622075907</v>
+        <v>0.08060944084835449</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.09499181745057438</v>
+        <v>-0.1060070466626045</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02329111543031127</v>
+        <v>0.01723144109687367</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1469201737958036</v>
+        <v>0.1609613065360307</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.07779946184656084</v>
+        <v>-0.08445593662891195</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1298759042259769</v>
+        <v>0.1288075252711131</v>
       </c>
     </row>
     <row r="57">
@@ -2513,31 +2511,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.026913399082615</v>
+        <v>0.9820192630805199</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.425590776617746</v>
+        <v>0.4758619596108429</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.123416516165796</v>
+        <v>1.157340634106392</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5353840781741512</v>
+        <v>0.5290865438387584</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3162191658632124</v>
+        <v>0.3175971727796123</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4243657631117789</v>
+        <v>0.3998687122142688</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5693264152332462</v>
+        <v>0.5551263589790422</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2733051617854473</v>
+        <v>0.2452936001450151</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5133270249866453</v>
+        <v>0.528416547484071</v>
       </c>
     </row>
     <row r="58">
